--- a/wwwroot/ExcelModel/Jako_WET_sheet.xlsx
+++ b/wwwroot/ExcelModel/Jako_WET_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\NX-lims Softlines Command System\wwwroot\ExcelModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4885A257-F431-4411-AB9D-1A2B34B35F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A3F577-AC57-4E25-8BD4-3BE075DB31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="768" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" tabRatio="768" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AppearanceAfterWashing-F" sheetId="25" r:id="rId1"/>
@@ -3450,7 +3450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4233,10 +4233,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4299,6 +4299,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4312,9 +4315,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4352,21 +4352,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4417,8 +4402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="324679" y="6759096"/>
-          <a:ext cx="1005717" cy="905302"/>
+          <a:off x="327519" y="6556503"/>
+          <a:ext cx="982999" cy="878810"/>
           <a:chOff x="1704" y="1420"/>
           <a:chExt cx="2441" cy="2438"/>
         </a:xfrm>
@@ -5244,8 +5229,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="121920" y="8227352"/>
-          <a:ext cx="2771876" cy="920668"/>
+          <a:off x="123825" y="7983134"/>
+          <a:ext cx="2755748" cy="890364"/>
           <a:chOff x="123825" y="8001389"/>
           <a:chExt cx="2749122" cy="893069"/>
         </a:xfrm>
@@ -6100,8 +6085,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3042218" y="8146097"/>
-          <a:ext cx="1083211" cy="1003853"/>
+          <a:off x="3027995" y="7901879"/>
+          <a:ext cx="1108806" cy="975454"/>
           <a:chOff x="8094" y="10480"/>
           <a:chExt cx="2840" cy="3834"/>
         </a:xfrm>
@@ -6693,8 +6678,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2729821" y="6528715"/>
-          <a:ext cx="2834965" cy="1406359"/>
+          <a:off x="2714664" y="6337516"/>
+          <a:ext cx="2882305" cy="1360924"/>
           <a:chOff x="2720667" y="6358642"/>
           <a:chExt cx="2884152" cy="1366464"/>
         </a:xfrm>
@@ -8436,8 +8421,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4200660" y="8207447"/>
-          <a:ext cx="1468863" cy="1009944"/>
+          <a:off x="4212032" y="7959419"/>
+          <a:ext cx="1494419" cy="981545"/>
           <a:chOff x="8001" y="12964"/>
           <a:chExt cx="2425" cy="1833"/>
         </a:xfrm>
@@ -9069,8 +9054,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1792276" y="7814080"/>
-          <a:ext cx="2774022" cy="926465"/>
+          <a:off x="1749685" y="7778021"/>
+          <a:ext cx="2734154" cy="923200"/>
           <a:chOff x="123825" y="8001389"/>
           <a:chExt cx="2749122" cy="893069"/>
         </a:xfrm>
@@ -9925,8 +9910,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="259884" y="7801280"/>
-          <a:ext cx="1137735" cy="1009650"/>
+          <a:off x="259067" y="7763316"/>
+          <a:ext cx="1103173" cy="1008290"/>
           <a:chOff x="8094" y="10480"/>
           <a:chExt cx="2840" cy="3834"/>
         </a:xfrm>
@@ -10520,8 +10505,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4771267" y="7626043"/>
-          <a:ext cx="1599686" cy="1369203"/>
+          <a:off x="4682276" y="7590664"/>
+          <a:ext cx="1579003" cy="1363353"/>
           <a:chOff x="8181" y="12784"/>
           <a:chExt cx="2520" cy="2160"/>
         </a:xfrm>
@@ -11300,8 +11285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="200513" y="6259255"/>
-          <a:ext cx="3228871" cy="1133109"/>
+          <a:off x="193981" y="6229319"/>
+          <a:ext cx="3167367" cy="1124537"/>
           <a:chOff x="267953" y="6243120"/>
           <a:chExt cx="3203740" cy="1122705"/>
         </a:xfrm>
@@ -13529,8 +13514,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4310966" y="6267778"/>
-          <a:ext cx="1373896" cy="1131814"/>
+          <a:off x="4228235" y="6239747"/>
+          <a:ext cx="1352124" cy="1121337"/>
           <a:chOff x="7506" y="10231"/>
           <a:chExt cx="2159" cy="1763"/>
         </a:xfrm>
@@ -14264,8 +14249,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="152401" y="5913121"/>
-          <a:ext cx="3159128" cy="1156971"/>
+          <a:off x="152401" y="5802087"/>
+          <a:ext cx="3115585" cy="1133566"/>
           <a:chOff x="2046" y="1704"/>
           <a:chExt cx="7763" cy="3148"/>
         </a:xfrm>
@@ -16192,8 +16177,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="121920" y="7665720"/>
-          <a:ext cx="1238885" cy="721360"/>
+          <a:off x="123825" y="7523389"/>
+          <a:ext cx="1210582" cy="706392"/>
           <a:chOff x="323850" y="7839075"/>
           <a:chExt cx="1158875" cy="749935"/>
         </a:xfrm>
@@ -16395,8 +16380,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1828800" y="7475220"/>
-          <a:ext cx="1431290" cy="899795"/>
+          <a:off x="1797504" y="7334250"/>
+          <a:ext cx="1415233" cy="889181"/>
           <a:chOff x="4402" y="12468"/>
           <a:chExt cx="2897" cy="1874"/>
         </a:xfrm>
@@ -17043,8 +17028,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3481830" y="5882640"/>
-          <a:ext cx="2884423" cy="1184909"/>
+          <a:off x="3435294" y="5774871"/>
+          <a:ext cx="2868910" cy="1158239"/>
           <a:chOff x="2129" y="5822"/>
           <a:chExt cx="5257" cy="2429"/>
         </a:xfrm>
@@ -19034,8 +19019,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4183380" y="7452360"/>
-          <a:ext cx="1104900" cy="990600"/>
+          <a:off x="4132489" y="7315200"/>
+          <a:ext cx="1102179" cy="974271"/>
           <a:chOff x="8094" y="10480"/>
           <a:chExt cx="2840" cy="3834"/>
         </a:xfrm>
@@ -19865,21 +19850,21 @@
   <dimension ref="A1:DK55"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="AR1" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5:CA7"/>
+      <selection activeCell="AX14" sqref="AX14:BB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15"/>
   <cols>
     <col min="1" max="3" width="2" style="50" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="1.625" style="50" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="1.640625" style="50" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="2" style="50" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="1.875" style="50" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="50" hidden="1" customWidth="1"/>
     <col min="8" max="13" width="2" style="50" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="1.5" style="50" hidden="1" customWidth="1"/>
     <col min="15" max="42" width="2" style="50" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="2.375" style="50" hidden="1" customWidth="1"/>
-    <col min="44" max="115" width="2.375" style="50" customWidth="1"/>
-    <col min="116" max="16384" width="8.875" style="50"/>
+    <col min="43" max="43" width="2.35546875" style="50" hidden="1" customWidth="1"/>
+    <col min="44" max="115" width="2.35546875" style="50" customWidth="1"/>
+    <col min="116" max="16384" width="8.85546875" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:115">
@@ -20630,7 +20615,7 @@
       <c r="BC12" s="143"/>
       <c r="BD12" s="143"/>
     </row>
-    <row r="13" spans="1:115" ht="17.25">
+    <row r="13" spans="1:115" ht="15.9">
       <c r="A13" s="50" t="s">
         <v>164</v>
       </c>
@@ -20677,7 +20662,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:115" ht="15">
+    <row r="14" spans="1:115">
       <c r="A14" s="132"/>
       <c r="B14" s="132"/>
       <c r="C14" s="132"/>
@@ -20743,7 +20728,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:115" ht="15">
+    <row r="15" spans="1:115">
       <c r="A15" s="50" t="s">
         <v>146</v>
       </c>
@@ -20813,7 +20798,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:115" ht="15">
+    <row r="16" spans="1:115">
       <c r="A16" s="132"/>
       <c r="B16" s="132"/>
       <c r="C16" s="132"/>
@@ -20873,7 +20858,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:80" ht="15">
+    <row r="17" spans="1:80">
       <c r="A17" s="132"/>
       <c r="B17" s="132"/>
       <c r="C17" s="132"/>
@@ -20927,7 +20912,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:80" ht="15">
+    <row r="18" spans="1:80">
       <c r="A18" s="50" t="s">
         <v>170</v>
       </c>
@@ -20989,7 +20974,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:80" ht="15">
+    <row r="19" spans="1:80">
       <c r="A19" s="50" t="s">
         <v>160</v>
       </c>
@@ -21047,7 +21032,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:80" ht="15">
+    <row r="20" spans="1:80">
       <c r="A20" s="50" t="s">
         <v>174</v>
       </c>
@@ -21110,7 +21095,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:80" ht="15">
+    <row r="21" spans="1:80">
       <c r="AR21" s="118" t="s">
         <v>28</v>
       </c>
@@ -21155,7 +21140,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="22" spans="1:80" ht="15">
+    <row r="22" spans="1:80">
       <c r="A22" s="50" t="s">
         <v>175</v>
       </c>
@@ -21180,7 +21165,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:80" ht="15">
+    <row r="23" spans="1:80">
       <c r="A23" s="50" t="s">
         <v>178</v>
       </c>
@@ -21191,7 +21176,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:80" ht="15">
+    <row r="24" spans="1:80">
       <c r="A24" s="50" t="s">
         <v>179</v>
       </c>
@@ -21211,12 +21196,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:80" ht="15">
+    <row r="25" spans="1:80">
       <c r="CB25" s="82" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:80" ht="15">
+    <row r="26" spans="1:80">
       <c r="A26" s="50" t="s">
         <v>181</v>
       </c>
@@ -21229,7 +21214,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:80" ht="15">
+    <row r="27" spans="1:80">
       <c r="A27" s="50" t="s">
         <v>183</v>
       </c>
@@ -21249,7 +21234,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:80" ht="15">
+    <row r="28" spans="1:80">
       <c r="A28" s="132"/>
       <c r="B28" s="132"/>
       <c r="C28" s="132"/>
@@ -21266,12 +21251,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:80" ht="15">
+    <row r="29" spans="1:80">
       <c r="CB29" s="82" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:80" ht="15">
+    <row r="30" spans="1:80">
       <c r="A30" s="50" t="s">
         <v>185</v>
       </c>
@@ -21293,7 +21278,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:80" ht="15">
+    <row r="31" spans="1:80">
       <c r="A31" s="50" t="s">
         <v>47</v>
       </c>
@@ -21318,17 +21303,17 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:80" ht="15">
+    <row r="32" spans="1:80">
       <c r="CB32" s="82" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:80" ht="15">
+    <row r="33" spans="1:80">
       <c r="CB33" s="82" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:80" ht="15">
+    <row r="34" spans="1:80">
       <c r="A34" s="50" t="s">
         <v>4</v>
       </c>
@@ -21406,7 +21391,7 @@
       <c r="AP35" s="62"/>
       <c r="CB35" s="84"/>
     </row>
-    <row r="36" spans="1:80" ht="15">
+    <row r="36" spans="1:80">
       <c r="A36" s="128"/>
       <c r="B36" s="129"/>
       <c r="C36" s="130"/>
@@ -21515,7 +21500,7 @@
       <c r="AO37" s="123"/>
       <c r="AP37" s="124"/>
     </row>
-    <row r="38" spans="1:80" ht="15">
+    <row r="38" spans="1:80">
       <c r="A38" s="125" t="s">
         <v>192</v>
       </c>
@@ -22509,32 +22494,32 @@
   <dimension ref="A1:BX72"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6:AG6"/>
+      <selection activeCell="AV5" sqref="AV5:BC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="4" width="2.375" customWidth="1"/>
+    <col min="1" max="4" width="2.35546875" customWidth="1"/>
     <col min="5" max="8" width="1" customWidth="1"/>
-    <col min="9" max="10" width="2.375" customWidth="1"/>
-    <col min="11" max="11" width="2.125" customWidth="1"/>
+    <col min="9" max="10" width="2.35546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
-    <col min="13" max="13" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="2.35546875" customWidth="1"/>
     <col min="14" max="14" width="2" customWidth="1"/>
-    <col min="15" max="15" width="0.625" customWidth="1"/>
-    <col min="16" max="19" width="2.375" customWidth="1"/>
-    <col min="20" max="20" width="1.625" customWidth="1"/>
-    <col min="21" max="21" width="2.375" customWidth="1"/>
-    <col min="22" max="22" width="2.875" customWidth="1"/>
-    <col min="23" max="26" width="2.375" customWidth="1"/>
-    <col min="27" max="27" width="2.875" customWidth="1"/>
-    <col min="28" max="30" width="2.375" customWidth="1"/>
+    <col min="15" max="15" width="0.640625" customWidth="1"/>
+    <col min="16" max="19" width="2.35546875" customWidth="1"/>
+    <col min="20" max="20" width="1.640625" customWidth="1"/>
+    <col min="21" max="21" width="2.35546875" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" customWidth="1"/>
+    <col min="23" max="26" width="2.35546875" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" customWidth="1"/>
+    <col min="28" max="30" width="2.35546875" customWidth="1"/>
     <col min="31" max="31" width="2.5" customWidth="1"/>
-    <col min="32" max="32" width="2.625" customWidth="1"/>
+    <col min="32" max="32" width="2.640625" customWidth="1"/>
     <col min="33" max="36" width="2.5" customWidth="1"/>
-    <col min="37" max="37" width="2.875" customWidth="1"/>
+    <col min="37" max="37" width="2.85546875" customWidth="1"/>
     <col min="38" max="40" width="2.5" customWidth="1"/>
-    <col min="41" max="76" width="2.375" customWidth="1"/>
+    <col min="41" max="76" width="2.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76">
@@ -22839,31 +22824,31 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="95"/>
-      <c r="U6" s="308"/>
-      <c r="V6" s="308"/>
-      <c r="W6" s="308"/>
-      <c r="X6" s="308"/>
-      <c r="Y6" s="309"/>
-      <c r="Z6" s="309"/>
-      <c r="AA6" s="309"/>
-      <c r="AB6" s="309"/>
-      <c r="AC6" s="309"/>
-      <c r="AD6" s="309"/>
-      <c r="AE6" s="309"/>
-      <c r="AF6" s="309"/>
-      <c r="AG6" s="309"/>
-      <c r="AH6" s="312" t="s">
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="175"/>
+      <c r="AF6" s="175"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="AI6" s="308"/>
-      <c r="AJ6" s="308"/>
-      <c r="AK6" s="308"/>
-      <c r="AL6" s="308"/>
-      <c r="AM6" s="308"/>
-      <c r="AN6" s="311"/>
-      <c r="AO6" s="310"/>
-      <c r="AP6" s="269"/>
-      <c r="AQ6" s="269"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="268"/>
+      <c r="AP6" s="268"/>
+      <c r="AQ6" s="268"/>
       <c r="AR6" s="272"/>
       <c r="AS6" s="276"/>
       <c r="AT6" s="276"/>
@@ -22945,9 +22930,9 @@
       <c r="AL7" s="16"/>
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
-      <c r="AO7" s="268"/>
-      <c r="AP7" s="269"/>
-      <c r="AQ7" s="269"/>
+      <c r="AO7" s="269"/>
+      <c r="AP7" s="268"/>
+      <c r="AQ7" s="268"/>
       <c r="AR7" s="272"/>
       <c r="AS7" s="276"/>
       <c r="AT7" s="276"/>
@@ -23027,9 +23012,9 @@
         <v>307</v>
       </c>
       <c r="AN8" s="17"/>
-      <c r="AO8" s="268"/>
-      <c r="AP8" s="269"/>
-      <c r="AQ8" s="269"/>
+      <c r="AO8" s="269"/>
+      <c r="AP8" s="268"/>
+      <c r="AQ8" s="268"/>
       <c r="AR8" s="98">
         <v>5</v>
       </c>
@@ -23127,9 +23112,9 @@
       <c r="AL9" s="245"/>
       <c r="AM9" s="245"/>
       <c r="AN9" s="246"/>
-      <c r="AO9" s="268"/>
-      <c r="AP9" s="269"/>
-      <c r="AQ9" s="269"/>
+      <c r="AO9" s="269"/>
+      <c r="AP9" s="268"/>
+      <c r="AQ9" s="268"/>
       <c r="AR9" s="272"/>
       <c r="AS9" s="276"/>
       <c r="AT9" s="276"/>
@@ -23211,9 +23196,9 @@
       <c r="AL10" s="247"/>
       <c r="AM10" s="247"/>
       <c r="AN10" s="248"/>
-      <c r="AO10" s="268"/>
-      <c r="AP10" s="269"/>
-      <c r="AQ10" s="269"/>
+      <c r="AO10" s="269"/>
+      <c r="AP10" s="268"/>
+      <c r="AQ10" s="268"/>
       <c r="AR10" s="272"/>
       <c r="AS10" s="276"/>
       <c r="AT10" s="276"/>
@@ -23287,7 +23272,9 @@
         <v>53</v>
       </c>
       <c r="AF11" s="249"/>
-      <c r="AG11" s="26"/>
+      <c r="AG11" s="26">
+        <v>5</v>
+      </c>
       <c r="AH11" s="250" t="s">
         <v>54</v>
       </c>
@@ -23296,7 +23283,9 @@
         <v>53</v>
       </c>
       <c r="AK11" s="249"/>
-      <c r="AL11" s="26"/>
+      <c r="AL11" s="26">
+        <v>5</v>
+      </c>
       <c r="AM11" s="250" t="s">
         <v>54</v>
       </c>
@@ -23424,7 +23413,7 @@
       <c r="AN13" s="154"/>
       <c r="AO13" s="51"/>
     </row>
-    <row r="14" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A14" s="86" t="s">
         <v>57</v>
       </c>
@@ -23463,7 +23452,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A15" s="86" t="s">
         <v>58</v>
       </c>
@@ -23537,7 +23526,7 @@
       <c r="BW15" s="120"/>
       <c r="BX15" s="120"/>
     </row>
-    <row r="16" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A16" s="86" t="s">
         <v>59</v>
       </c>
@@ -23621,7 +23610,7 @@
       <c r="BW16" s="119"/>
       <c r="BX16" s="117"/>
     </row>
-    <row r="17" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A17" s="86" t="s">
         <v>60</v>
       </c>
@@ -23695,7 +23684,7 @@
       <c r="BW17" s="116"/>
       <c r="BX17" s="116"/>
     </row>
-    <row r="18" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="18" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A18" s="86" t="s">
         <v>61</v>
       </c>
@@ -23769,7 +23758,7 @@
       <c r="BW18" s="116"/>
       <c r="BX18" s="116"/>
     </row>
-    <row r="19" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="19" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A19" s="86" t="s">
         <v>62</v>
       </c>
@@ -23843,7 +23832,7 @@
       <c r="BW19" s="116"/>
       <c r="BX19" s="116"/>
     </row>
-    <row r="20" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="20" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A20" s="86" t="s">
         <v>63</v>
       </c>
@@ -23921,7 +23910,7 @@
       <c r="BW20" s="50"/>
       <c r="BX20" s="50"/>
     </row>
-    <row r="21" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="21" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A21" s="86" t="s">
         <v>64</v>
       </c>
@@ -23995,7 +23984,7 @@
       <c r="BW21" s="50"/>
       <c r="BX21" s="50"/>
     </row>
-    <row r="22" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="22" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A22" s="86" t="s">
         <v>65</v>
       </c>
@@ -24031,7 +24020,7 @@
       <c r="AM22" s="154"/>
       <c r="AN22" s="154"/>
     </row>
-    <row r="23" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="23" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A23" s="86" t="s">
         <v>66</v>
       </c>
@@ -24105,7 +24094,7 @@
       <c r="BU23" s="50"/>
       <c r="BV23" s="50"/>
     </row>
-    <row r="24" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="24" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A24" s="87" t="s">
         <v>133</v>
       </c>
@@ -24177,7 +24166,7 @@
       <c r="BU24" s="50"/>
       <c r="BV24" s="50"/>
     </row>
-    <row r="25" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="25" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A25" s="86" t="s">
         <v>67</v>
       </c>
@@ -24249,7 +24238,7 @@
       <c r="BU25" s="50"/>
       <c r="BV25" s="50"/>
     </row>
-    <row r="26" spans="1:76" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="26" spans="1:76" ht="18.649999999999999" customHeight="1" thickBot="1">
       <c r="A26" s="104" t="s">
         <v>347</v>
       </c>
@@ -24321,7 +24310,7 @@
       <c r="BU26" s="50"/>
       <c r="BV26" s="50"/>
     </row>
-    <row r="27" spans="1:76" ht="18.600000000000001" customHeight="1" thickTop="1">
+    <row r="27" spans="1:76" ht="18.649999999999999" customHeight="1" thickTop="1">
       <c r="A27" s="86" t="s">
         <v>60</v>
       </c>
@@ -24401,7 +24390,7 @@
       <c r="BU27" s="50"/>
       <c r="BV27" s="50"/>
     </row>
-    <row r="28" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="28" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A28" s="86" t="s">
         <v>68</v>
       </c>
@@ -24473,7 +24462,7 @@
       <c r="BU28" s="50"/>
       <c r="BV28" s="50"/>
     </row>
-    <row r="29" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="29" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A29" s="86" t="s">
         <v>69</v>
       </c>
@@ -24545,7 +24534,7 @@
       <c r="BU29" s="50"/>
       <c r="BV29" s="50"/>
     </row>
-    <row r="30" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="30" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A30" s="86" t="s">
         <v>70</v>
       </c>
@@ -24617,7 +24606,7 @@
       <c r="BU30" s="50"/>
       <c r="BV30" s="50"/>
     </row>
-    <row r="31" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="31" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A31" s="86" t="s">
         <v>71</v>
       </c>
@@ -24689,7 +24678,7 @@
       <c r="BU31" s="50"/>
       <c r="BV31" s="50"/>
     </row>
-    <row r="32" spans="1:76" ht="18.600000000000001" customHeight="1">
+    <row r="32" spans="1:76" ht="18.649999999999999" customHeight="1">
       <c r="A32" s="86" t="s">
         <v>72</v>
       </c>
@@ -24761,7 +24750,7 @@
       <c r="BU32" s="50"/>
       <c r="BV32" s="50"/>
     </row>
-    <row r="33" spans="1:74" ht="18.600000000000001" customHeight="1">
+    <row r="33" spans="1:74" ht="18.649999999999999" customHeight="1">
       <c r="A33" s="86" t="s">
         <v>73</v>
       </c>
@@ -24833,7 +24822,7 @@
       <c r="BU33" s="50"/>
       <c r="BV33" s="50"/>
     </row>
-    <row r="34" spans="1:74" ht="18.600000000000001" customHeight="1">
+    <row r="34" spans="1:74" ht="18.649999999999999" customHeight="1">
       <c r="A34" s="86" t="s">
         <v>74</v>
       </c>
@@ -24905,7 +24894,7 @@
       <c r="BU34" s="50"/>
       <c r="BV34" s="50"/>
     </row>
-    <row r="35" spans="1:74" ht="18.600000000000001" customHeight="1">
+    <row r="35" spans="1:74" ht="18.649999999999999" customHeight="1">
       <c r="A35" s="86" t="s">
         <v>75</v>
       </c>
@@ -24977,7 +24966,7 @@
       <c r="BU35" s="50"/>
       <c r="BV35" s="50"/>
     </row>
-    <row r="36" spans="1:74" ht="18.600000000000001" customHeight="1">
+    <row r="36" spans="1:74" ht="18.649999999999999" customHeight="1">
       <c r="A36" s="88" t="s">
         <v>76</v>
       </c>
@@ -25057,7 +25046,7 @@
       <c r="BU36" s="50"/>
       <c r="BV36" s="50"/>
     </row>
-    <row r="37" spans="1:74" ht="15">
+    <row r="37" spans="1:74">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -25098,7 +25087,7 @@
       <c r="BU37" s="50"/>
       <c r="BV37" s="50"/>
     </row>
-    <row r="38" spans="1:74" ht="15">
+    <row r="38" spans="1:74">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -25167,7 +25156,7 @@
       <c r="BU38" s="50"/>
       <c r="BV38" s="50"/>
     </row>
-    <row r="39" spans="1:74" ht="15">
+    <row r="39" spans="1:74">
       <c r="V39" s="11"/>
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
@@ -25221,7 +25210,7 @@
       <c r="BU39" s="50"/>
       <c r="BV39" s="50"/>
     </row>
-    <row r="40" spans="1:74" ht="15">
+    <row r="40" spans="1:74">
       <c r="AO40" s="82" t="s">
         <v>244</v>
       </c>
@@ -25259,7 +25248,7 @@
       <c r="BU40" s="50"/>
       <c r="BV40" s="50"/>
     </row>
-    <row r="41" spans="1:74" ht="15">
+    <row r="41" spans="1:74">
       <c r="U41" s="11"/>
       <c r="AO41" s="82" t="s">
         <v>245</v>
@@ -25344,7 +25333,7 @@
       <c r="BU42" s="50"/>
       <c r="BV42" s="50"/>
     </row>
-    <row r="43" spans="1:74" ht="15">
+    <row r="43" spans="1:74">
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -25393,7 +25382,7 @@
       <c r="BU43" s="50"/>
       <c r="BV43" s="50"/>
     </row>
-    <row r="44" spans="1:74" ht="15">
+    <row r="44" spans="1:74">
       <c r="AO44" t="s">
         <v>248</v>
       </c>
@@ -25467,7 +25456,7 @@
       <c r="BU45" s="50"/>
       <c r="BV45" s="50"/>
     </row>
-    <row r="46" spans="1:74" ht="15">
+    <row r="46" spans="1:74">
       <c r="AO46" s="84" t="s">
         <v>249</v>
       </c>
@@ -25541,7 +25530,7 @@
       <c r="BU47" s="50"/>
       <c r="BV47" s="50"/>
     </row>
-    <row r="48" spans="1:74" ht="15">
+    <row r="48" spans="1:74">
       <c r="AO48" t="s">
         <v>251</v>
       </c>
@@ -25812,33 +25801,33 @@
   <dimension ref="A1:AP69"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="49" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:U3"/>
+      <selection activeCell="AJ14" sqref="AJ14:AN14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="4" width="2.375" customWidth="1"/>
+    <col min="1" max="4" width="2.35546875" customWidth="1"/>
     <col min="5" max="6" width="1" customWidth="1"/>
     <col min="7" max="8" width="1.5" customWidth="1"/>
-    <col min="9" max="10" width="2.375" customWidth="1"/>
-    <col min="11" max="11" width="2.125" customWidth="1"/>
+    <col min="9" max="10" width="2.35546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
-    <col min="13" max="13" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="2.35546875" customWidth="1"/>
     <col min="14" max="14" width="1" customWidth="1"/>
-    <col min="15" max="19" width="2.375" customWidth="1"/>
-    <col min="20" max="20" width="1.625" customWidth="1"/>
-    <col min="21" max="21" width="2.375" customWidth="1"/>
-    <col min="22" max="22" width="2.875" customWidth="1"/>
-    <col min="23" max="26" width="2.375" customWidth="1"/>
-    <col min="27" max="27" width="2.875" customWidth="1"/>
-    <col min="28" max="30" width="2.375" customWidth="1"/>
+    <col min="15" max="19" width="2.35546875" customWidth="1"/>
+    <col min="20" max="20" width="1.640625" customWidth="1"/>
+    <col min="21" max="21" width="2.35546875" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" customWidth="1"/>
+    <col min="23" max="26" width="2.35546875" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" customWidth="1"/>
+    <col min="28" max="30" width="2.35546875" customWidth="1"/>
     <col min="31" max="31" width="2.5" customWidth="1"/>
-    <col min="32" max="32" width="2.625" customWidth="1"/>
+    <col min="32" max="32" width="2.640625" customWidth="1"/>
     <col min="33" max="36" width="2.5" customWidth="1"/>
-    <col min="37" max="37" width="2.875" customWidth="1"/>
+    <col min="37" max="37" width="2.85546875" customWidth="1"/>
     <col min="38" max="38" width="2.5" customWidth="1"/>
-    <col min="39" max="39" width="3.375" customWidth="1"/>
-    <col min="40" max="40" width="4.25" customWidth="1"/>
+    <col min="39" max="39" width="3.35546875" customWidth="1"/>
+    <col min="40" max="40" width="4.2109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -26042,7 +26031,9 @@
         <v>53</v>
       </c>
       <c r="AA6" s="245"/>
-      <c r="AB6" s="25"/>
+      <c r="AB6" s="25">
+        <v>1</v>
+      </c>
       <c r="AC6" s="237" t="s">
         <v>54</v>
       </c>
@@ -26160,7 +26151,9 @@
         <v>53</v>
       </c>
       <c r="AK8" s="249"/>
-      <c r="AL8" s="26"/>
+      <c r="AL8" s="26">
+        <v>1</v>
+      </c>
       <c r="AM8" s="250" t="s">
         <v>54</v>
       </c>
@@ -26246,7 +26239,7 @@
       <c r="AM10" s="154"/>
       <c r="AN10" s="154"/>
     </row>
-    <row r="11" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A11" s="27" t="s">
         <v>57</v>
       </c>
@@ -26282,7 +26275,7 @@
       <c r="AM11" s="154"/>
       <c r="AN11" s="154"/>
     </row>
-    <row r="12" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="12" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A12" s="27" t="s">
         <v>58</v>
       </c>
@@ -26318,7 +26311,7 @@
       <c r="AM12" s="154"/>
       <c r="AN12" s="154"/>
     </row>
-    <row r="13" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A13" s="27" t="s">
         <v>59</v>
       </c>
@@ -26354,7 +26347,7 @@
       <c r="AM13" s="154"/>
       <c r="AN13" s="154"/>
     </row>
-    <row r="14" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A14" s="27" t="s">
         <v>60</v>
       </c>
@@ -26390,7 +26383,7 @@
       <c r="AM14" s="154"/>
       <c r="AN14" s="154"/>
     </row>
-    <row r="15" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A15" s="27" t="s">
         <v>61</v>
       </c>
@@ -26426,7 +26419,7 @@
       <c r="AM15" s="154"/>
       <c r="AN15" s="154"/>
     </row>
-    <row r="16" spans="1:42" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="1:42" ht="18.649999999999999" customHeight="1">
       <c r="A16" s="27" t="s">
         <v>62</v>
       </c>
@@ -26462,7 +26455,7 @@
       <c r="AM16" s="154"/>
       <c r="AN16" s="154"/>
     </row>
-    <row r="17" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A17" s="27" t="s">
         <v>63</v>
       </c>
@@ -26498,7 +26491,7 @@
       <c r="AM17" s="154"/>
       <c r="AN17" s="154"/>
     </row>
-    <row r="18" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="18" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A18" s="27" t="s">
         <v>64</v>
       </c>
@@ -26534,7 +26527,7 @@
       <c r="AM18" s="154"/>
       <c r="AN18" s="154"/>
     </row>
-    <row r="19" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="19" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A19" s="27" t="s">
         <v>65</v>
       </c>
@@ -26570,7 +26563,7 @@
       <c r="AM19" s="154"/>
       <c r="AN19" s="154"/>
     </row>
-    <row r="20" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="20" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A20" s="27" t="s">
         <v>66</v>
       </c>
@@ -26606,7 +26599,7 @@
       <c r="AM20" s="154"/>
       <c r="AN20" s="154"/>
     </row>
-    <row r="21" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="21" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A21" s="41" t="s">
         <v>133</v>
       </c>
@@ -26642,7 +26635,7 @@
       <c r="AM21" s="154"/>
       <c r="AN21" s="154"/>
     </row>
-    <row r="22" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="22" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A22" s="27" t="s">
         <v>67</v>
       </c>
@@ -26678,7 +26671,7 @@
       <c r="AM22" s="154"/>
       <c r="AN22" s="154"/>
     </row>
-    <row r="23" spans="1:40" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="23" spans="1:40" ht="18.649999999999999" customHeight="1" thickBot="1">
       <c r="A23" s="40" t="s">
         <v>132</v>
       </c>
@@ -26714,7 +26707,7 @@
       <c r="AM23" s="236"/>
       <c r="AN23" s="236"/>
     </row>
-    <row r="24" spans="1:40" ht="18.600000000000001" customHeight="1" thickTop="1">
+    <row r="24" spans="1:40" ht="18.649999999999999" customHeight="1" thickTop="1">
       <c r="A24" s="27" t="s">
         <v>60</v>
       </c>
@@ -26758,7 +26751,7 @@
       <c r="AM24" s="234"/>
       <c r="AN24" s="234"/>
     </row>
-    <row r="25" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="25" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A25" s="27" t="s">
         <v>68</v>
       </c>
@@ -26794,7 +26787,7 @@
       <c r="AM25" s="154"/>
       <c r="AN25" s="154"/>
     </row>
-    <row r="26" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="26" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A26" s="27" t="s">
         <v>69</v>
       </c>
@@ -26830,7 +26823,7 @@
       <c r="AM26" s="154"/>
       <c r="AN26" s="154"/>
     </row>
-    <row r="27" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="27" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A27" s="27" t="s">
         <v>70</v>
       </c>
@@ -26866,7 +26859,7 @@
       <c r="AM27" s="154"/>
       <c r="AN27" s="154"/>
     </row>
-    <row r="28" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="28" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A28" s="27" t="s">
         <v>71</v>
       </c>
@@ -26902,7 +26895,7 @@
       <c r="AM28" s="154"/>
       <c r="AN28" s="154"/>
     </row>
-    <row r="29" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="29" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A29" s="27" t="s">
         <v>72</v>
       </c>
@@ -26938,7 +26931,7 @@
       <c r="AM29" s="154"/>
       <c r="AN29" s="154"/>
     </row>
-    <row r="30" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="30" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A30" s="27" t="s">
         <v>73</v>
       </c>
@@ -26974,7 +26967,7 @@
       <c r="AM30" s="154"/>
       <c r="AN30" s="154"/>
     </row>
-    <row r="31" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="31" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A31" s="27" t="s">
         <v>74</v>
       </c>
@@ -27010,7 +27003,7 @@
       <c r="AM31" s="154"/>
       <c r="AN31" s="154"/>
     </row>
-    <row r="32" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="32" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A32" s="27" t="s">
         <v>75</v>
       </c>
@@ -27046,7 +27039,7 @@
       <c r="AM32" s="154"/>
       <c r="AN32" s="154"/>
     </row>
-    <row r="33" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="33" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A33" s="31" t="s">
         <v>76</v>
       </c>
@@ -27579,23 +27572,23 @@
       <selection activeCell="G28" sqref="G28:K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="4" width="2.375" customWidth="1"/>
-    <col min="5" max="5" width="3.25" customWidth="1"/>
+    <col min="1" max="4" width="2.35546875" customWidth="1"/>
+    <col min="5" max="5" width="3.2109375" customWidth="1"/>
     <col min="6" max="8" width="1" customWidth="1"/>
-    <col min="9" max="10" width="2.375" customWidth="1"/>
-    <col min="11" max="11" width="2.125" customWidth="1"/>
+    <col min="9" max="10" width="2.35546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
-    <col min="13" max="13" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="2.35546875" customWidth="1"/>
     <col min="14" max="14" width="1" customWidth="1"/>
-    <col min="15" max="19" width="2.375" customWidth="1"/>
-    <col min="20" max="20" width="1.625" customWidth="1"/>
-    <col min="21" max="21" width="2.375" customWidth="1"/>
-    <col min="22" max="22" width="2.875" customWidth="1"/>
-    <col min="23" max="26" width="2.375" customWidth="1"/>
-    <col min="27" max="27" width="2.875" customWidth="1"/>
-    <col min="28" max="30" width="2.375" customWidth="1"/>
+    <col min="15" max="19" width="2.35546875" customWidth="1"/>
+    <col min="20" max="20" width="1.640625" customWidth="1"/>
+    <col min="21" max="21" width="2.35546875" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" customWidth="1"/>
+    <col min="23" max="26" width="2.35546875" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" customWidth="1"/>
+    <col min="28" max="30" width="2.35546875" customWidth="1"/>
     <col min="31" max="40" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -28109,7 +28102,7 @@
       <c r="AM12" s="154"/>
       <c r="AN12" s="154"/>
     </row>
-    <row r="13" spans="1:44" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="1:44" ht="18.649999999999999" customHeight="1">
       <c r="A13" s="27" t="s">
         <v>80</v>
       </c>
@@ -28148,7 +28141,7 @@
       <c r="AM13" s="154"/>
       <c r="AN13" s="154"/>
     </row>
-    <row r="14" spans="1:44" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="1:44" ht="18.649999999999999" customHeight="1">
       <c r="A14" s="27" t="s">
         <v>81</v>
       </c>
@@ -28187,7 +28180,7 @@
       <c r="AM14" s="154"/>
       <c r="AN14" s="154"/>
     </row>
-    <row r="15" spans="1:44" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:44" ht="18.649999999999999" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>82</v>
       </c>
@@ -28231,7 +28224,7 @@
       <c r="AM15" s="154"/>
       <c r="AN15" s="154"/>
     </row>
-    <row r="16" spans="1:44" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="1:44" ht="18.649999999999999" customHeight="1">
       <c r="A16" s="286"/>
       <c r="B16" s="286"/>
       <c r="C16" s="286"/>
@@ -28273,7 +28266,7 @@
       <c r="AM16" s="286"/>
       <c r="AN16" s="286"/>
     </row>
-    <row r="17" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A17" s="283" t="s">
         <v>83</v>
       </c>
@@ -28333,7 +28326,7 @@
       <c r="AM17" s="245"/>
       <c r="AN17" s="246"/>
     </row>
-    <row r="18" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="18" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A18" s="284"/>
       <c r="B18" s="284"/>
       <c r="C18" s="284"/>
@@ -28379,7 +28372,7 @@
       <c r="AM18" s="247"/>
       <c r="AN18" s="248"/>
     </row>
-    <row r="19" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="19" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -28433,7 +28426,7 @@
       </c>
       <c r="AN19" s="244"/>
     </row>
-    <row r="20" spans="1:40" ht="14.1" customHeight="1">
+    <row r="20" spans="1:40" ht="14.15" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>84</v>
       </c>
@@ -28477,7 +28470,7 @@
       <c r="AM20" s="157"/>
       <c r="AN20" s="158"/>
     </row>
-    <row r="21" spans="1:40" ht="14.1" customHeight="1">
+    <row r="21" spans="1:40" ht="14.15" customHeight="1">
       <c r="A21" s="35" t="s">
         <v>85</v>
       </c>
@@ -28513,7 +28506,7 @@
       <c r="AM21" s="169"/>
       <c r="AN21" s="170"/>
     </row>
-    <row r="22" spans="1:40" ht="14.1" customHeight="1">
+    <row r="22" spans="1:40" ht="14.15" customHeight="1">
       <c r="A22" s="27" t="s">
         <v>86</v>
       </c>
@@ -28549,7 +28542,7 @@
       <c r="AM22" s="144"/>
       <c r="AN22" s="160"/>
     </row>
-    <row r="23" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="23" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A23" s="27" t="s">
         <v>87</v>
       </c>
@@ -28585,7 +28578,7 @@
       <c r="AM23" s="154"/>
       <c r="AN23" s="154"/>
     </row>
-    <row r="24" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="24" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
@@ -28629,7 +28622,7 @@
       <c r="AM24" s="154"/>
       <c r="AN24" s="154"/>
     </row>
-    <row r="25" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="25" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A25" s="286"/>
       <c r="B25" s="286"/>
       <c r="C25" s="286"/>
@@ -28671,7 +28664,7 @@
       <c r="AM25" s="286"/>
       <c r="AN25" s="286"/>
     </row>
-    <row r="26" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="26" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A26" s="283" t="s">
         <v>89</v>
       </c>
@@ -28731,7 +28724,7 @@
       <c r="AM26" s="245"/>
       <c r="AN26" s="246"/>
     </row>
-    <row r="27" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="27" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A27" s="284"/>
       <c r="B27" s="284"/>
       <c r="C27" s="284"/>
@@ -28777,7 +28770,7 @@
       <c r="AM27" s="247"/>
       <c r="AN27" s="248"/>
     </row>
-    <row r="28" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="28" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
@@ -28831,7 +28824,7 @@
       </c>
       <c r="AN28" s="244"/>
     </row>
-    <row r="29" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="29" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A29" s="30" t="s">
         <v>90</v>
       </c>
@@ -28875,7 +28868,7 @@
       <c r="AM29" s="154"/>
       <c r="AN29" s="154"/>
     </row>
-    <row r="30" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="30" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A30" s="27" t="s">
         <v>91</v>
       </c>
@@ -29672,26 +29665,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224DFA9E-EFF5-4CB2-AF2C-E3BE7929EE5A}">
   <dimension ref="A1:AS66"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="G26" sqref="G26:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="4" width="2.375" customWidth="1"/>
+    <col min="1" max="4" width="2.35546875" customWidth="1"/>
     <col min="5" max="8" width="1" customWidth="1"/>
-    <col min="9" max="10" width="2.375" customWidth="1"/>
-    <col min="11" max="11" width="2.125" customWidth="1"/>
+    <col min="9" max="10" width="2.35546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
-    <col min="13" max="13" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="2.35546875" customWidth="1"/>
     <col min="14" max="14" width="1" customWidth="1"/>
-    <col min="15" max="19" width="2.375" customWidth="1"/>
-    <col min="20" max="20" width="1.625" customWidth="1"/>
-    <col min="21" max="21" width="2.375" customWidth="1"/>
-    <col min="22" max="22" width="2.875" customWidth="1"/>
-    <col min="23" max="26" width="2.375" customWidth="1"/>
-    <col min="27" max="27" width="2.875" customWidth="1"/>
-    <col min="28" max="30" width="2.375" customWidth="1"/>
+    <col min="15" max="19" width="2.35546875" customWidth="1"/>
+    <col min="20" max="20" width="1.640625" customWidth="1"/>
+    <col min="21" max="21" width="2.35546875" customWidth="1"/>
+    <col min="22" max="22" width="2.85546875" customWidth="1"/>
+    <col min="23" max="26" width="2.35546875" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" customWidth="1"/>
+    <col min="28" max="30" width="2.35546875" customWidth="1"/>
     <col min="31" max="40" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30114,7 +30107,7 @@
       <c r="AM10" s="154"/>
       <c r="AN10" s="154"/>
     </row>
-    <row r="11" spans="1:45" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="1:45" ht="18.649999999999999" customHeight="1">
       <c r="A11" s="27" t="s">
         <v>80</v>
       </c>
@@ -30153,7 +30146,7 @@
       <c r="AM11" s="154"/>
       <c r="AN11" s="154"/>
     </row>
-    <row r="12" spans="1:45" ht="18.600000000000001" customHeight="1">
+    <row r="12" spans="1:45" ht="18.649999999999999" customHeight="1">
       <c r="A12" s="27" t="s">
         <v>81</v>
       </c>
@@ -30192,7 +30185,7 @@
       <c r="AM12" s="154"/>
       <c r="AN12" s="154"/>
     </row>
-    <row r="13" spans="1:45" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="1:45" ht="18.649999999999999" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>82</v>
       </c>
@@ -30236,7 +30229,7 @@
       <c r="AM13" s="154"/>
       <c r="AN13" s="154"/>
     </row>
-    <row r="14" spans="1:45" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="1:45" ht="18.649999999999999" customHeight="1">
       <c r="A14" s="27"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -30270,7 +30263,7 @@
       <c r="AM14" s="10"/>
       <c r="AN14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:45" ht="18.649999999999999" customHeight="1">
       <c r="A15" s="283" t="s">
         <v>83</v>
       </c>
@@ -30330,7 +30323,7 @@
       <c r="AM15" s="245"/>
       <c r="AN15" s="246"/>
     </row>
-    <row r="16" spans="1:45" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="1:45" ht="18.649999999999999" customHeight="1">
       <c r="A16" s="284"/>
       <c r="B16" s="284"/>
       <c r="C16" s="284"/>
@@ -30376,7 +30369,7 @@
       <c r="AM16" s="247"/>
       <c r="AN16" s="248"/>
     </row>
-    <row r="17" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -30430,7 +30423,7 @@
       </c>
       <c r="AN17" s="244"/>
     </row>
-    <row r="18" spans="1:40" ht="14.1" customHeight="1">
+    <row r="18" spans="1:40" ht="14.15" customHeight="1">
       <c r="A18" s="30" t="s">
         <v>84</v>
       </c>
@@ -30474,7 +30467,7 @@
       <c r="AM18" s="157"/>
       <c r="AN18" s="158"/>
     </row>
-    <row r="19" spans="1:40" ht="14.1" customHeight="1">
+    <row r="19" spans="1:40" ht="14.15" customHeight="1">
       <c r="A19" s="35" t="s">
         <v>85</v>
       </c>
@@ -30510,7 +30503,7 @@
       <c r="AM19" s="169"/>
       <c r="AN19" s="170"/>
     </row>
-    <row r="20" spans="1:40" ht="14.1" customHeight="1">
+    <row r="20" spans="1:40" ht="14.15" customHeight="1">
       <c r="A20" s="27" t="s">
         <v>86</v>
       </c>
@@ -30546,7 +30539,7 @@
       <c r="AM20" s="144"/>
       <c r="AN20" s="160"/>
     </row>
-    <row r="21" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="21" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A21" s="27" t="s">
         <v>87</v>
       </c>
@@ -30582,7 +30575,7 @@
       <c r="AM21" s="154"/>
       <c r="AN21" s="154"/>
     </row>
-    <row r="22" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="22" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>88</v>
       </c>
@@ -30626,7 +30619,7 @@
       <c r="AM22" s="154"/>
       <c r="AN22" s="154"/>
     </row>
-    <row r="23" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="23" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A23" s="27"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
@@ -30660,7 +30653,7 @@
       <c r="AM23" s="10"/>
       <c r="AN23" s="10"/>
     </row>
-    <row r="24" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="24" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A24" s="283" t="s">
         <v>89</v>
       </c>
@@ -30720,7 +30713,7 @@
       <c r="AM24" s="245"/>
       <c r="AN24" s="246"/>
     </row>
-    <row r="25" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="25" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A25" s="284"/>
       <c r="B25" s="284"/>
       <c r="C25" s="284"/>
@@ -30766,7 +30759,7 @@
       <c r="AM25" s="247"/>
       <c r="AN25" s="248"/>
     </row>
-    <row r="26" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="26" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
@@ -30820,7 +30813,7 @@
       </c>
       <c r="AN26" s="244"/>
     </row>
-    <row r="27" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="27" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A27" s="30" t="s">
         <v>90</v>
       </c>
@@ -30864,7 +30857,7 @@
       <c r="AM27" s="154"/>
       <c r="AN27" s="154"/>
     </row>
-    <row r="28" spans="1:40" ht="18.600000000000001" customHeight="1">
+    <row r="28" spans="1:40" ht="18.649999999999999" customHeight="1">
       <c r="A28" s="27" t="s">
         <v>91</v>
       </c>
@@ -31659,16 +31652,16 @@
       <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="4" width="2.375" customWidth="1"/>
+    <col min="1" max="4" width="2.35546875" customWidth="1"/>
     <col min="5" max="8" width="1" customWidth="1"/>
-    <col min="9" max="10" width="2.375" customWidth="1"/>
-    <col min="11" max="11" width="2.125" customWidth="1"/>
+    <col min="9" max="10" width="2.35546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
-    <col min="13" max="13" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="2.35546875" customWidth="1"/>
     <col min="14" max="14" width="1" customWidth="1"/>
-    <col min="15" max="40" width="2.375" customWidth="1"/>
+    <col min="15" max="40" width="2.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -31755,7 +31748,7 @@
       <c r="AR3" s="17"/>
       <c r="AS3" s="17"/>
     </row>
-    <row r="4" spans="1:45" ht="8.4499999999999993" customHeight="1">
+    <row r="4" spans="1:45" ht="8.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -31849,7 +31842,7 @@
       <c r="AP5" s="16"/>
       <c r="AQ5" s="16"/>
     </row>
-    <row r="6" spans="1:45" ht="8.4499999999999993" customHeight="1">
+    <row r="6" spans="1:45" ht="8.5" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="17"/>
       <c r="C6" s="38"/>
@@ -31938,43 +31931,43 @@
       <c r="G8" s="237"/>
       <c r="H8" s="237"/>
       <c r="I8" s="289"/>
-      <c r="J8" s="290" t="s">
+      <c r="J8" s="291" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="290" t="s">
+      <c r="K8" s="291"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="291"/>
+      <c r="O8" s="291"/>
+      <c r="P8" s="291"/>
+      <c r="Q8" s="291"/>
+      <c r="R8" s="291"/>
+      <c r="S8" s="291"/>
+      <c r="T8" s="291"/>
+      <c r="U8" s="291" t="s">
         <v>111</v>
       </c>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="290"/>
-      <c r="Y8" s="290"/>
-      <c r="Z8" s="290"/>
-      <c r="AA8" s="290"/>
-      <c r="AB8" s="290"/>
-      <c r="AC8" s="290"/>
-      <c r="AD8" s="290"/>
-      <c r="AE8" s="290" t="s">
+      <c r="V8" s="291"/>
+      <c r="W8" s="291"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="291"/>
+      <c r="Z8" s="291"/>
+      <c r="AA8" s="291"/>
+      <c r="AB8" s="291"/>
+      <c r="AC8" s="291"/>
+      <c r="AD8" s="291"/>
+      <c r="AE8" s="291" t="s">
         <v>112</v>
       </c>
-      <c r="AF8" s="290"/>
-      <c r="AG8" s="290"/>
-      <c r="AH8" s="290"/>
-      <c r="AI8" s="290"/>
-      <c r="AJ8" s="290"/>
-      <c r="AK8" s="290"/>
-      <c r="AL8" s="290"/>
-      <c r="AM8" s="290"/>
-      <c r="AN8" s="290"/>
+      <c r="AF8" s="291"/>
+      <c r="AG8" s="291"/>
+      <c r="AH8" s="291"/>
+      <c r="AI8" s="291"/>
+      <c r="AJ8" s="291"/>
+      <c r="AK8" s="291"/>
+      <c r="AL8" s="291"/>
+      <c r="AM8" s="291"/>
+      <c r="AN8" s="291"/>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="282"/>
@@ -31986,37 +31979,37 @@
       <c r="G9" s="250"/>
       <c r="H9" s="250"/>
       <c r="I9" s="281"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="290"/>
-      <c r="M9" s="290"/>
-      <c r="N9" s="290"/>
-      <c r="O9" s="290"/>
-      <c r="P9" s="290"/>
-      <c r="Q9" s="290"/>
-      <c r="R9" s="290"/>
-      <c r="S9" s="290"/>
-      <c r="T9" s="290"/>
-      <c r="U9" s="290"/>
-      <c r="V9" s="290"/>
-      <c r="W9" s="290"/>
-      <c r="X9" s="290"/>
-      <c r="Y9" s="290"/>
-      <c r="Z9" s="290"/>
-      <c r="AA9" s="290"/>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="290"/>
-      <c r="AD9" s="290"/>
-      <c r="AE9" s="290"/>
-      <c r="AF9" s="290"/>
-      <c r="AG9" s="290"/>
-      <c r="AH9" s="290"/>
-      <c r="AI9" s="290"/>
-      <c r="AJ9" s="290"/>
-      <c r="AK9" s="290"/>
-      <c r="AL9" s="290"/>
-      <c r="AM9" s="290"/>
-      <c r="AN9" s="290"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="291"/>
+      <c r="L9" s="291"/>
+      <c r="M9" s="291"/>
+      <c r="N9" s="291"/>
+      <c r="O9" s="291"/>
+      <c r="P9" s="291"/>
+      <c r="Q9" s="291"/>
+      <c r="R9" s="291"/>
+      <c r="S9" s="291"/>
+      <c r="T9" s="291"/>
+      <c r="U9" s="291"/>
+      <c r="V9" s="291"/>
+      <c r="W9" s="291"/>
+      <c r="X9" s="291"/>
+      <c r="Y9" s="291"/>
+      <c r="Z9" s="291"/>
+      <c r="AA9" s="291"/>
+      <c r="AB9" s="291"/>
+      <c r="AC9" s="291"/>
+      <c r="AD9" s="291"/>
+      <c r="AE9" s="291"/>
+      <c r="AF9" s="291"/>
+      <c r="AG9" s="291"/>
+      <c r="AH9" s="291"/>
+      <c r="AI9" s="291"/>
+      <c r="AJ9" s="291"/>
+      <c r="AK9" s="291"/>
+      <c r="AL9" s="291"/>
+      <c r="AM9" s="291"/>
+      <c r="AN9" s="291"/>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="148"/>
@@ -32251,12 +32244,12 @@
       <c r="AF17" s="250"/>
       <c r="AG17" s="250"/>
       <c r="AH17" s="281"/>
-      <c r="AI17" s="292"/>
-      <c r="AJ17" s="293"/>
-      <c r="AK17" s="293"/>
-      <c r="AL17" s="293"/>
-      <c r="AM17" s="293"/>
-      <c r="AN17" s="294"/>
+      <c r="AI17" s="293"/>
+      <c r="AJ17" s="294"/>
+      <c r="AK17" s="294"/>
+      <c r="AL17" s="294"/>
+      <c r="AM17" s="294"/>
+      <c r="AN17" s="295"/>
     </row>
     <row r="18" spans="1:40">
       <c r="A18" s="148"/>
@@ -32293,12 +32286,12 @@
       <c r="AF18" s="165"/>
       <c r="AG18" s="165"/>
       <c r="AH18" s="166"/>
-      <c r="AI18" s="291"/>
-      <c r="AJ18" s="291"/>
-      <c r="AK18" s="291"/>
-      <c r="AL18" s="291"/>
-      <c r="AM18" s="291"/>
-      <c r="AN18" s="291"/>
+      <c r="AI18" s="292"/>
+      <c r="AJ18" s="292"/>
+      <c r="AK18" s="292"/>
+      <c r="AL18" s="292"/>
+      <c r="AM18" s="292"/>
+      <c r="AN18" s="292"/>
     </row>
     <row r="19" spans="1:40">
       <c r="A19" s="148"/>
@@ -32335,12 +32328,12 @@
       <c r="AF19" s="165"/>
       <c r="AG19" s="165"/>
       <c r="AH19" s="166"/>
-      <c r="AI19" s="290"/>
-      <c r="AJ19" s="290"/>
-      <c r="AK19" s="290"/>
-      <c r="AL19" s="290"/>
-      <c r="AM19" s="290"/>
-      <c r="AN19" s="290"/>
+      <c r="AI19" s="291"/>
+      <c r="AJ19" s="291"/>
+      <c r="AK19" s="291"/>
+      <c r="AL19" s="291"/>
+      <c r="AM19" s="291"/>
+      <c r="AN19" s="291"/>
     </row>
     <row r="20" spans="1:40">
       <c r="A20" s="11" t="s">
@@ -32366,43 +32359,43 @@
       <c r="G22" s="237"/>
       <c r="H22" s="237"/>
       <c r="I22" s="289"/>
-      <c r="J22" s="295" t="s">
+      <c r="J22" s="290" t="s">
         <v>370</v>
       </c>
-      <c r="K22" s="290"/>
-      <c r="L22" s="290"/>
-      <c r="M22" s="290"/>
-      <c r="N22" s="290"/>
-      <c r="O22" s="290"/>
-      <c r="P22" s="290"/>
-      <c r="Q22" s="290"/>
-      <c r="R22" s="290"/>
-      <c r="S22" s="290"/>
-      <c r="T22" s="290"/>
-      <c r="U22" s="295" t="s">
+      <c r="K22" s="291"/>
+      <c r="L22" s="291"/>
+      <c r="M22" s="291"/>
+      <c r="N22" s="291"/>
+      <c r="O22" s="291"/>
+      <c r="P22" s="291"/>
+      <c r="Q22" s="291"/>
+      <c r="R22" s="291"/>
+      <c r="S22" s="291"/>
+      <c r="T22" s="291"/>
+      <c r="U22" s="290" t="s">
         <v>369</v>
       </c>
-      <c r="V22" s="290"/>
-      <c r="W22" s="290"/>
-      <c r="X22" s="290"/>
-      <c r="Y22" s="290"/>
-      <c r="Z22" s="290"/>
-      <c r="AA22" s="290"/>
-      <c r="AB22" s="290"/>
-      <c r="AC22" s="290"/>
-      <c r="AD22" s="290"/>
-      <c r="AE22" s="290" t="s">
+      <c r="V22" s="291"/>
+      <c r="W22" s="291"/>
+      <c r="X22" s="291"/>
+      <c r="Y22" s="291"/>
+      <c r="Z22" s="291"/>
+      <c r="AA22" s="291"/>
+      <c r="AB22" s="291"/>
+      <c r="AC22" s="291"/>
+      <c r="AD22" s="291"/>
+      <c r="AE22" s="291" t="s">
         <v>112</v>
       </c>
-      <c r="AF22" s="290"/>
-      <c r="AG22" s="290"/>
-      <c r="AH22" s="290"/>
-      <c r="AI22" s="290"/>
-      <c r="AJ22" s="290"/>
-      <c r="AK22" s="290"/>
-      <c r="AL22" s="290"/>
-      <c r="AM22" s="290"/>
-      <c r="AN22" s="290"/>
+      <c r="AF22" s="291"/>
+      <c r="AG22" s="291"/>
+      <c r="AH22" s="291"/>
+      <c r="AI22" s="291"/>
+      <c r="AJ22" s="291"/>
+      <c r="AK22" s="291"/>
+      <c r="AL22" s="291"/>
+      <c r="AM22" s="291"/>
+      <c r="AN22" s="291"/>
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="282"/>
@@ -32414,37 +32407,37 @@
       <c r="G23" s="250"/>
       <c r="H23" s="250"/>
       <c r="I23" s="281"/>
-      <c r="J23" s="290"/>
-      <c r="K23" s="290"/>
-      <c r="L23" s="290"/>
-      <c r="M23" s="290"/>
-      <c r="N23" s="290"/>
-      <c r="O23" s="290"/>
-      <c r="P23" s="290"/>
-      <c r="Q23" s="290"/>
-      <c r="R23" s="290"/>
-      <c r="S23" s="290"/>
-      <c r="T23" s="290"/>
-      <c r="U23" s="290"/>
-      <c r="V23" s="290"/>
-      <c r="W23" s="290"/>
-      <c r="X23" s="290"/>
-      <c r="Y23" s="290"/>
-      <c r="Z23" s="290"/>
-      <c r="AA23" s="290"/>
-      <c r="AB23" s="290"/>
-      <c r="AC23" s="290"/>
-      <c r="AD23" s="290"/>
-      <c r="AE23" s="290"/>
-      <c r="AF23" s="290"/>
-      <c r="AG23" s="290"/>
-      <c r="AH23" s="290"/>
-      <c r="AI23" s="290"/>
-      <c r="AJ23" s="290"/>
-      <c r="AK23" s="290"/>
-      <c r="AL23" s="290"/>
-      <c r="AM23" s="290"/>
-      <c r="AN23" s="290"/>
+      <c r="J23" s="291"/>
+      <c r="K23" s="291"/>
+      <c r="L23" s="291"/>
+      <c r="M23" s="291"/>
+      <c r="N23" s="291"/>
+      <c r="O23" s="291"/>
+      <c r="P23" s="291"/>
+      <c r="Q23" s="291"/>
+      <c r="R23" s="291"/>
+      <c r="S23" s="291"/>
+      <c r="T23" s="291"/>
+      <c r="U23" s="291"/>
+      <c r="V23" s="291"/>
+      <c r="W23" s="291"/>
+      <c r="X23" s="291"/>
+      <c r="Y23" s="291"/>
+      <c r="Z23" s="291"/>
+      <c r="AA23" s="291"/>
+      <c r="AB23" s="291"/>
+      <c r="AC23" s="291"/>
+      <c r="AD23" s="291"/>
+      <c r="AE23" s="291"/>
+      <c r="AF23" s="291"/>
+      <c r="AG23" s="291"/>
+      <c r="AH23" s="291"/>
+      <c r="AI23" s="291"/>
+      <c r="AJ23" s="291"/>
+      <c r="AK23" s="291"/>
+      <c r="AL23" s="291"/>
+      <c r="AM23" s="291"/>
+      <c r="AN23" s="291"/>
     </row>
     <row r="24" spans="1:40">
       <c r="A24" s="148"/>
@@ -32638,7 +32631,7 @@
       <c r="AM29" s="237"/>
       <c r="AN29" s="289"/>
     </row>
-    <row r="30" spans="1:40" s="27" customFormat="1" ht="8.4499999999999993" customHeight="1">
+    <row r="30" spans="1:40" s="27" customFormat="1" ht="8.5" customHeight="1">
       <c r="A30" s="282"/>
       <c r="B30" s="250"/>
       <c r="C30" s="250"/>
@@ -32673,12 +32666,12 @@
       <c r="AF30" s="250"/>
       <c r="AG30" s="250"/>
       <c r="AH30" s="281"/>
-      <c r="AI30" s="292"/>
-      <c r="AJ30" s="293"/>
-      <c r="AK30" s="293"/>
-      <c r="AL30" s="293"/>
-      <c r="AM30" s="293"/>
-      <c r="AN30" s="294"/>
+      <c r="AI30" s="293"/>
+      <c r="AJ30" s="294"/>
+      <c r="AK30" s="294"/>
+      <c r="AL30" s="294"/>
+      <c r="AM30" s="294"/>
+      <c r="AN30" s="295"/>
     </row>
     <row r="31" spans="1:40">
       <c r="A31" s="148"/>
@@ -32715,12 +32708,12 @@
       <c r="AF31" s="165"/>
       <c r="AG31" s="165"/>
       <c r="AH31" s="166"/>
-      <c r="AI31" s="291"/>
-      <c r="AJ31" s="291"/>
-      <c r="AK31" s="291"/>
-      <c r="AL31" s="291"/>
-      <c r="AM31" s="291"/>
-      <c r="AN31" s="291"/>
+      <c r="AI31" s="292"/>
+      <c r="AJ31" s="292"/>
+      <c r="AK31" s="292"/>
+      <c r="AL31" s="292"/>
+      <c r="AM31" s="292"/>
+      <c r="AN31" s="292"/>
     </row>
     <row r="32" spans="1:40">
       <c r="A32" s="148"/>
@@ -32757,12 +32750,12 @@
       <c r="AF32" s="165"/>
       <c r="AG32" s="165"/>
       <c r="AH32" s="166"/>
-      <c r="AI32" s="290"/>
-      <c r="AJ32" s="290"/>
-      <c r="AK32" s="290"/>
-      <c r="AL32" s="290"/>
-      <c r="AM32" s="290"/>
-      <c r="AN32" s="290"/>
+      <c r="AI32" s="291"/>
+      <c r="AJ32" s="291"/>
+      <c r="AK32" s="291"/>
+      <c r="AL32" s="291"/>
+      <c r="AM32" s="291"/>
+      <c r="AN32" s="291"/>
     </row>
     <row r="33" spans="1:44">
       <c r="A33" s="112" t="s">
@@ -33170,11 +33163,6 @@
     <mergeCell ref="U24:AD24"/>
     <mergeCell ref="U25:AD25"/>
     <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="AI18:AN18"/>
-    <mergeCell ref="AI16:AN17"/>
-    <mergeCell ref="Q16:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="Q19:V19"/>
     <mergeCell ref="U22:AD23"/>
     <mergeCell ref="AC16:AH17"/>
     <mergeCell ref="AC18:AH18"/>
@@ -33182,18 +33170,20 @@
     <mergeCell ref="W16:AB17"/>
     <mergeCell ref="W18:AB18"/>
     <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="Q16:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="Q19:V19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J8:T9"/>
+    <mergeCell ref="J10:T10"/>
     <mergeCell ref="P1:AN1"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="A8:I9"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="J11:T11"/>
-    <mergeCell ref="J12:T12"/>
-    <mergeCell ref="J16:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J8:T9"/>
-    <mergeCell ref="J10:T10"/>
+    <mergeCell ref="AI18:AN18"/>
+    <mergeCell ref="AI16:AN17"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="J24:T24"/>
     <mergeCell ref="J25:T25"/>
@@ -33207,6 +33197,9 @@
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="J22:T23"/>
     <mergeCell ref="J26:T26"/>
+    <mergeCell ref="J12:T12"/>
+    <mergeCell ref="J16:P17"/>
+    <mergeCell ref="J18:P18"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.82677165354330717" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -33231,20 +33224,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FFA765-0C2A-41A2-AE81-D7A3E08C30F5}">
   <dimension ref="A1:AS58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="49" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="49" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="X34" sqref="X34:AE34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="4" width="2.375" customWidth="1"/>
+    <col min="1" max="4" width="2.35546875" customWidth="1"/>
     <col min="5" max="8" width="1" customWidth="1"/>
-    <col min="9" max="10" width="2.375" customWidth="1"/>
-    <col min="11" max="11" width="2.125" customWidth="1"/>
+    <col min="9" max="10" width="2.35546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
-    <col min="13" max="13" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="2.35546875" customWidth="1"/>
     <col min="14" max="14" width="1" customWidth="1"/>
-    <col min="15" max="40" width="2.375" customWidth="1"/>
+    <col min="15" max="40" width="2.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -33331,7 +33324,7 @@
       <c r="AR3" s="17"/>
       <c r="AS3" s="17"/>
     </row>
-    <row r="4" spans="1:45" ht="8.4499999999999993" customHeight="1">
+    <row r="4" spans="1:45" ht="8.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -33425,7 +33418,7 @@
       <c r="AP5" s="16"/>
       <c r="AQ5" s="16"/>
     </row>
-    <row r="6" spans="1:45" ht="8.4499999999999993" customHeight="1">
+    <row r="6" spans="1:45" ht="8.5" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="17"/>
       <c r="C6" s="38"/>
@@ -33514,43 +33507,43 @@
       <c r="G8" s="237"/>
       <c r="H8" s="237"/>
       <c r="I8" s="289"/>
-      <c r="J8" s="295" t="s">
+      <c r="J8" s="290" t="s">
         <v>384</v>
       </c>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-      <c r="M8" s="290"/>
-      <c r="N8" s="290"/>
-      <c r="O8" s="290"/>
-      <c r="P8" s="290"/>
-      <c r="Q8" s="290"/>
-      <c r="R8" s="290"/>
-      <c r="S8" s="290"/>
-      <c r="T8" s="290"/>
-      <c r="U8" s="295" t="s">
+      <c r="K8" s="291"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="291"/>
+      <c r="O8" s="291"/>
+      <c r="P8" s="291"/>
+      <c r="Q8" s="291"/>
+      <c r="R8" s="291"/>
+      <c r="S8" s="291"/>
+      <c r="T8" s="291"/>
+      <c r="U8" s="290" t="s">
         <v>385</v>
       </c>
-      <c r="V8" s="290"/>
-      <c r="W8" s="290"/>
-      <c r="X8" s="290"/>
-      <c r="Y8" s="290"/>
-      <c r="Z8" s="290"/>
-      <c r="AA8" s="290"/>
-      <c r="AB8" s="290"/>
-      <c r="AC8" s="290"/>
-      <c r="AD8" s="290"/>
-      <c r="AE8" s="290" t="s">
+      <c r="V8" s="291"/>
+      <c r="W8" s="291"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="291"/>
+      <c r="Z8" s="291"/>
+      <c r="AA8" s="291"/>
+      <c r="AB8" s="291"/>
+      <c r="AC8" s="291"/>
+      <c r="AD8" s="291"/>
+      <c r="AE8" s="291" t="s">
         <v>112</v>
       </c>
-      <c r="AF8" s="290"/>
-      <c r="AG8" s="290"/>
-      <c r="AH8" s="290"/>
-      <c r="AI8" s="290"/>
-      <c r="AJ8" s="290"/>
-      <c r="AK8" s="290"/>
-      <c r="AL8" s="290"/>
-      <c r="AM8" s="290"/>
-      <c r="AN8" s="290"/>
+      <c r="AF8" s="291"/>
+      <c r="AG8" s="291"/>
+      <c r="AH8" s="291"/>
+      <c r="AI8" s="291"/>
+      <c r="AJ8" s="291"/>
+      <c r="AK8" s="291"/>
+      <c r="AL8" s="291"/>
+      <c r="AM8" s="291"/>
+      <c r="AN8" s="291"/>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="282"/>
@@ -33562,37 +33555,37 @@
       <c r="G9" s="250"/>
       <c r="H9" s="250"/>
       <c r="I9" s="281"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="290"/>
-      <c r="M9" s="290"/>
-      <c r="N9" s="290"/>
-      <c r="O9" s="290"/>
-      <c r="P9" s="290"/>
-      <c r="Q9" s="290"/>
-      <c r="R9" s="290"/>
-      <c r="S9" s="290"/>
-      <c r="T9" s="290"/>
-      <c r="U9" s="290"/>
-      <c r="V9" s="290"/>
-      <c r="W9" s="290"/>
-      <c r="X9" s="290"/>
-      <c r="Y9" s="290"/>
-      <c r="Z9" s="290"/>
-      <c r="AA9" s="290"/>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="290"/>
-      <c r="AD9" s="290"/>
-      <c r="AE9" s="290"/>
-      <c r="AF9" s="290"/>
-      <c r="AG9" s="290"/>
-      <c r="AH9" s="290"/>
-      <c r="AI9" s="290"/>
-      <c r="AJ9" s="290"/>
-      <c r="AK9" s="290"/>
-      <c r="AL9" s="290"/>
-      <c r="AM9" s="290"/>
-      <c r="AN9" s="290"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="291"/>
+      <c r="L9" s="291"/>
+      <c r="M9" s="291"/>
+      <c r="N9" s="291"/>
+      <c r="O9" s="291"/>
+      <c r="P9" s="291"/>
+      <c r="Q9" s="291"/>
+      <c r="R9" s="291"/>
+      <c r="S9" s="291"/>
+      <c r="T9" s="291"/>
+      <c r="U9" s="291"/>
+      <c r="V9" s="291"/>
+      <c r="W9" s="291"/>
+      <c r="X9" s="291"/>
+      <c r="Y9" s="291"/>
+      <c r="Z9" s="291"/>
+      <c r="AA9" s="291"/>
+      <c r="AB9" s="291"/>
+      <c r="AC9" s="291"/>
+      <c r="AD9" s="291"/>
+      <c r="AE9" s="291"/>
+      <c r="AF9" s="291"/>
+      <c r="AG9" s="291"/>
+      <c r="AH9" s="291"/>
+      <c r="AI9" s="291"/>
+      <c r="AJ9" s="291"/>
+      <c r="AK9" s="291"/>
+      <c r="AL9" s="291"/>
+      <c r="AM9" s="291"/>
+      <c r="AN9" s="291"/>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="148"/>
@@ -33744,43 +33737,43 @@
       <c r="G15" s="237"/>
       <c r="H15" s="237"/>
       <c r="I15" s="289"/>
-      <c r="J15" s="295" t="s">
+      <c r="J15" s="290" t="s">
         <v>386</v>
       </c>
-      <c r="K15" s="290"/>
-      <c r="L15" s="290"/>
-      <c r="M15" s="290"/>
-      <c r="N15" s="290"/>
-      <c r="O15" s="290"/>
-      <c r="P15" s="290"/>
-      <c r="Q15" s="290"/>
-      <c r="R15" s="290"/>
-      <c r="S15" s="290"/>
-      <c r="T15" s="290"/>
-      <c r="U15" s="295" t="s">
+      <c r="K15" s="291"/>
+      <c r="L15" s="291"/>
+      <c r="M15" s="291"/>
+      <c r="N15" s="291"/>
+      <c r="O15" s="291"/>
+      <c r="P15" s="291"/>
+      <c r="Q15" s="291"/>
+      <c r="R15" s="291"/>
+      <c r="S15" s="291"/>
+      <c r="T15" s="291"/>
+      <c r="U15" s="290" t="s">
         <v>387</v>
       </c>
-      <c r="V15" s="290"/>
-      <c r="W15" s="290"/>
-      <c r="X15" s="290"/>
-      <c r="Y15" s="290"/>
-      <c r="Z15" s="290"/>
-      <c r="AA15" s="290"/>
-      <c r="AB15" s="290"/>
-      <c r="AC15" s="290"/>
-      <c r="AD15" s="290"/>
-      <c r="AE15" s="290" t="s">
+      <c r="V15" s="291"/>
+      <c r="W15" s="291"/>
+      <c r="X15" s="291"/>
+      <c r="Y15" s="291"/>
+      <c r="Z15" s="291"/>
+      <c r="AA15" s="291"/>
+      <c r="AB15" s="291"/>
+      <c r="AC15" s="291"/>
+      <c r="AD15" s="291"/>
+      <c r="AE15" s="291" t="s">
         <v>112</v>
       </c>
-      <c r="AF15" s="290"/>
-      <c r="AG15" s="290"/>
-      <c r="AH15" s="290"/>
-      <c r="AI15" s="290"/>
-      <c r="AJ15" s="290"/>
-      <c r="AK15" s="290"/>
-      <c r="AL15" s="290"/>
-      <c r="AM15" s="290"/>
-      <c r="AN15" s="290"/>
+      <c r="AF15" s="291"/>
+      <c r="AG15" s="291"/>
+      <c r="AH15" s="291"/>
+      <c r="AI15" s="291"/>
+      <c r="AJ15" s="291"/>
+      <c r="AK15" s="291"/>
+      <c r="AL15" s="291"/>
+      <c r="AM15" s="291"/>
+      <c r="AN15" s="291"/>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="282"/>
@@ -33792,37 +33785,37 @@
       <c r="G16" s="250"/>
       <c r="H16" s="250"/>
       <c r="I16" s="281"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="290"/>
-      <c r="L16" s="290"/>
-      <c r="M16" s="290"/>
-      <c r="N16" s="290"/>
-      <c r="O16" s="290"/>
-      <c r="P16" s="290"/>
-      <c r="Q16" s="290"/>
-      <c r="R16" s="290"/>
-      <c r="S16" s="290"/>
-      <c r="T16" s="290"/>
-      <c r="U16" s="290"/>
-      <c r="V16" s="290"/>
-      <c r="W16" s="290"/>
-      <c r="X16" s="290"/>
-      <c r="Y16" s="290"/>
-      <c r="Z16" s="290"/>
-      <c r="AA16" s="290"/>
-      <c r="AB16" s="290"/>
-      <c r="AC16" s="290"/>
-      <c r="AD16" s="290"/>
-      <c r="AE16" s="290"/>
-      <c r="AF16" s="290"/>
-      <c r="AG16" s="290"/>
-      <c r="AH16" s="290"/>
-      <c r="AI16" s="290"/>
-      <c r="AJ16" s="290"/>
-      <c r="AK16" s="290"/>
-      <c r="AL16" s="290"/>
-      <c r="AM16" s="290"/>
-      <c r="AN16" s="290"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="291"/>
+      <c r="M16" s="291"/>
+      <c r="N16" s="291"/>
+      <c r="O16" s="291"/>
+      <c r="P16" s="291"/>
+      <c r="Q16" s="291"/>
+      <c r="R16" s="291"/>
+      <c r="S16" s="291"/>
+      <c r="T16" s="291"/>
+      <c r="U16" s="291"/>
+      <c r="V16" s="291"/>
+      <c r="W16" s="291"/>
+      <c r="X16" s="291"/>
+      <c r="Y16" s="291"/>
+      <c r="Z16" s="291"/>
+      <c r="AA16" s="291"/>
+      <c r="AB16" s="291"/>
+      <c r="AC16" s="291"/>
+      <c r="AD16" s="291"/>
+      <c r="AE16" s="291"/>
+      <c r="AF16" s="291"/>
+      <c r="AG16" s="291"/>
+      <c r="AH16" s="291"/>
+      <c r="AI16" s="291"/>
+      <c r="AJ16" s="291"/>
+      <c r="AK16" s="291"/>
+      <c r="AL16" s="291"/>
+      <c r="AM16" s="291"/>
+      <c r="AN16" s="291"/>
     </row>
     <row r="17" spans="1:44">
       <c r="A17" s="148"/>
@@ -33974,7 +33967,7 @@
       <c r="AM21" s="237"/>
       <c r="AN21" s="289"/>
     </row>
-    <row r="22" spans="1:44" s="27" customFormat="1" ht="8.4499999999999993" customHeight="1">
+    <row r="22" spans="1:44" s="27" customFormat="1" ht="8.5" customHeight="1">
       <c r="A22" s="282"/>
       <c r="B22" s="250"/>
       <c r="C22" s="250"/>
@@ -34009,12 +34002,12 @@
       <c r="AF22" s="250"/>
       <c r="AG22" s="250"/>
       <c r="AH22" s="281"/>
-      <c r="AI22" s="292"/>
-      <c r="AJ22" s="293"/>
-      <c r="AK22" s="293"/>
-      <c r="AL22" s="293"/>
-      <c r="AM22" s="293"/>
-      <c r="AN22" s="294"/>
+      <c r="AI22" s="293"/>
+      <c r="AJ22" s="294"/>
+      <c r="AK22" s="294"/>
+      <c r="AL22" s="294"/>
+      <c r="AM22" s="294"/>
+      <c r="AN22" s="295"/>
     </row>
     <row r="23" spans="1:44">
       <c r="A23" s="147"/>
@@ -34051,12 +34044,12 @@
       <c r="AF23" s="154"/>
       <c r="AG23" s="154"/>
       <c r="AH23" s="154"/>
-      <c r="AI23" s="291"/>
-      <c r="AJ23" s="291"/>
-      <c r="AK23" s="291"/>
-      <c r="AL23" s="291"/>
-      <c r="AM23" s="291"/>
-      <c r="AN23" s="291"/>
+      <c r="AI23" s="292"/>
+      <c r="AJ23" s="292"/>
+      <c r="AK23" s="292"/>
+      <c r="AL23" s="292"/>
+      <c r="AM23" s="292"/>
+      <c r="AN23" s="292"/>
     </row>
     <row r="24" spans="1:44">
       <c r="A24" s="147"/>
@@ -34093,12 +34086,12 @@
       <c r="AF24" s="154"/>
       <c r="AG24" s="154"/>
       <c r="AH24" s="154"/>
-      <c r="AI24" s="290"/>
-      <c r="AJ24" s="290"/>
-      <c r="AK24" s="290"/>
-      <c r="AL24" s="290"/>
-      <c r="AM24" s="290"/>
-      <c r="AN24" s="290"/>
+      <c r="AI24" s="291"/>
+      <c r="AJ24" s="291"/>
+      <c r="AK24" s="291"/>
+      <c r="AL24" s="291"/>
+      <c r="AM24" s="291"/>
+      <c r="AN24" s="291"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="11" t="s">
@@ -34162,43 +34155,43 @@
       <c r="G27" s="237"/>
       <c r="H27" s="237"/>
       <c r="I27" s="289"/>
-      <c r="J27" s="295" t="s">
+      <c r="J27" s="290" t="s">
         <v>370</v>
       </c>
-      <c r="K27" s="290"/>
-      <c r="L27" s="290"/>
-      <c r="M27" s="290"/>
-      <c r="N27" s="290"/>
-      <c r="O27" s="290"/>
-      <c r="P27" s="290"/>
-      <c r="Q27" s="290"/>
-      <c r="R27" s="290"/>
-      <c r="S27" s="290"/>
-      <c r="T27" s="290"/>
-      <c r="U27" s="295" t="s">
+      <c r="K27" s="291"/>
+      <c r="L27" s="291"/>
+      <c r="M27" s="291"/>
+      <c r="N27" s="291"/>
+      <c r="O27" s="291"/>
+      <c r="P27" s="291"/>
+      <c r="Q27" s="291"/>
+      <c r="R27" s="291"/>
+      <c r="S27" s="291"/>
+      <c r="T27" s="291"/>
+      <c r="U27" s="290" t="s">
         <v>369</v>
       </c>
-      <c r="V27" s="290"/>
-      <c r="W27" s="290"/>
-      <c r="X27" s="290"/>
-      <c r="Y27" s="290"/>
-      <c r="Z27" s="290"/>
-      <c r="AA27" s="290"/>
-      <c r="AB27" s="290"/>
-      <c r="AC27" s="290"/>
-      <c r="AD27" s="290"/>
-      <c r="AE27" s="290" t="s">
+      <c r="V27" s="291"/>
+      <c r="W27" s="291"/>
+      <c r="X27" s="291"/>
+      <c r="Y27" s="291"/>
+      <c r="Z27" s="291"/>
+      <c r="AA27" s="291"/>
+      <c r="AB27" s="291"/>
+      <c r="AC27" s="291"/>
+      <c r="AD27" s="291"/>
+      <c r="AE27" s="291" t="s">
         <v>112</v>
       </c>
-      <c r="AF27" s="290"/>
-      <c r="AG27" s="290"/>
-      <c r="AH27" s="290"/>
-      <c r="AI27" s="290"/>
-      <c r="AJ27" s="290"/>
-      <c r="AK27" s="290"/>
-      <c r="AL27" s="290"/>
-      <c r="AM27" s="290"/>
-      <c r="AN27" s="290"/>
+      <c r="AF27" s="291"/>
+      <c r="AG27" s="291"/>
+      <c r="AH27" s="291"/>
+      <c r="AI27" s="291"/>
+      <c r="AJ27" s="291"/>
+      <c r="AK27" s="291"/>
+      <c r="AL27" s="291"/>
+      <c r="AM27" s="291"/>
+      <c r="AN27" s="291"/>
     </row>
     <row r="28" spans="1:44">
       <c r="A28" s="282"/>
@@ -34210,37 +34203,37 @@
       <c r="G28" s="250"/>
       <c r="H28" s="250"/>
       <c r="I28" s="281"/>
-      <c r="J28" s="290"/>
-      <c r="K28" s="290"/>
-      <c r="L28" s="290"/>
-      <c r="M28" s="290"/>
-      <c r="N28" s="290"/>
-      <c r="O28" s="290"/>
-      <c r="P28" s="290"/>
-      <c r="Q28" s="290"/>
-      <c r="R28" s="290"/>
-      <c r="S28" s="290"/>
-      <c r="T28" s="290"/>
-      <c r="U28" s="290"/>
-      <c r="V28" s="290"/>
-      <c r="W28" s="290"/>
-      <c r="X28" s="290"/>
-      <c r="Y28" s="290"/>
-      <c r="Z28" s="290"/>
-      <c r="AA28" s="290"/>
-      <c r="AB28" s="290"/>
-      <c r="AC28" s="290"/>
-      <c r="AD28" s="290"/>
-      <c r="AE28" s="290"/>
-      <c r="AF28" s="290"/>
-      <c r="AG28" s="290"/>
-      <c r="AH28" s="290"/>
-      <c r="AI28" s="290"/>
-      <c r="AJ28" s="290"/>
-      <c r="AK28" s="290"/>
-      <c r="AL28" s="290"/>
-      <c r="AM28" s="290"/>
-      <c r="AN28" s="290"/>
+      <c r="J28" s="291"/>
+      <c r="K28" s="291"/>
+      <c r="L28" s="291"/>
+      <c r="M28" s="291"/>
+      <c r="N28" s="291"/>
+      <c r="O28" s="291"/>
+      <c r="P28" s="291"/>
+      <c r="Q28" s="291"/>
+      <c r="R28" s="291"/>
+      <c r="S28" s="291"/>
+      <c r="T28" s="291"/>
+      <c r="U28" s="291"/>
+      <c r="V28" s="291"/>
+      <c r="W28" s="291"/>
+      <c r="X28" s="291"/>
+      <c r="Y28" s="291"/>
+      <c r="Z28" s="291"/>
+      <c r="AA28" s="291"/>
+      <c r="AB28" s="291"/>
+      <c r="AC28" s="291"/>
+      <c r="AD28" s="291"/>
+      <c r="AE28" s="291"/>
+      <c r="AF28" s="291"/>
+      <c r="AG28" s="291"/>
+      <c r="AH28" s="291"/>
+      <c r="AI28" s="291"/>
+      <c r="AJ28" s="291"/>
+      <c r="AK28" s="291"/>
+      <c r="AL28" s="291"/>
+      <c r="AM28" s="291"/>
+      <c r="AN28" s="291"/>
       <c r="AO28" s="16"/>
       <c r="AP28" s="16"/>
       <c r="AQ28" s="16"/>
@@ -34487,10 +34480,10 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
       <c r="S34" s="16"/>
-      <c r="T34" s="312"/>
-      <c r="U34" s="312"/>
-      <c r="V34" s="312"/>
-      <c r="W34" s="312"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
       <c r="X34" s="175"/>
       <c r="Y34" s="175"/>
       <c r="Z34" s="175"/>
@@ -34499,16 +34492,16 @@
       <c r="AC34" s="175"/>
       <c r="AD34" s="175"/>
       <c r="AE34" s="175"/>
-      <c r="AF34" s="312" t="s">
+      <c r="AF34" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="AG34" s="312"/>
-      <c r="AH34" s="312"/>
-      <c r="AI34" s="312"/>
-      <c r="AJ34" s="312"/>
-      <c r="AK34" s="312"/>
-      <c r="AL34" s="312"/>
-      <c r="AM34" s="312"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
       <c r="AN34" s="16"/>
     </row>
     <row r="35" spans="1:40">
@@ -34842,16 +34835,16 @@
       <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="4" width="2.375" customWidth="1"/>
+    <col min="1" max="4" width="2.35546875" customWidth="1"/>
     <col min="5" max="8" width="1" customWidth="1"/>
-    <col min="9" max="10" width="2.375" customWidth="1"/>
-    <col min="11" max="11" width="2.125" customWidth="1"/>
+    <col min="9" max="10" width="2.35546875" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="1" customWidth="1"/>
-    <col min="13" max="13" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="2.35546875" customWidth="1"/>
     <col min="14" max="14" width="1" customWidth="1"/>
-    <col min="15" max="40" width="2.375" customWidth="1"/>
+    <col min="15" max="40" width="2.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -34936,7 +34929,7 @@
       <c r="AR3" s="17"/>
       <c r="AS3" s="17"/>
     </row>
-    <row r="4" spans="1:45" ht="8.4499999999999993" customHeight="1">
+    <row r="4" spans="1:45" ht="8.5" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -35030,7 +35023,7 @@
       <c r="AP5" s="16"/>
       <c r="AQ5" s="16"/>
     </row>
-    <row r="6" spans="1:45" ht="8.4499999999999993" customHeight="1">
+    <row r="6" spans="1:45" ht="8.5" customHeight="1">
       <c r="A6" s="36"/>
       <c r="B6" s="17"/>
       <c r="C6" s="38"/>
@@ -35363,7 +35356,7 @@
       <c r="G17" s="237"/>
       <c r="H17" s="237"/>
       <c r="I17" s="289"/>
-      <c r="J17" s="290" t="s">
+      <c r="J17" s="291" t="s">
         <v>120</v>
       </c>
       <c r="K17" s="154"/>
@@ -35371,28 +35364,28 @@
       <c r="M17" s="154"/>
       <c r="N17" s="154"/>
       <c r="O17" s="154"/>
-      <c r="P17" s="290" t="s">
+      <c r="P17" s="291" t="s">
         <v>119</v>
       </c>
       <c r="Q17" s="154"/>
       <c r="R17" s="154"/>
       <c r="S17" s="154"/>
       <c r="T17" s="154"/>
-      <c r="U17" s="290" t="s">
+      <c r="U17" s="291" t="s">
         <v>121</v>
       </c>
       <c r="V17" s="154"/>
       <c r="W17" s="154"/>
       <c r="X17" s="154"/>
       <c r="Y17" s="154"/>
-      <c r="Z17" s="290" t="s">
+      <c r="Z17" s="291" t="s">
         <v>122</v>
       </c>
       <c r="AA17" s="154"/>
       <c r="AB17" s="154"/>
       <c r="AC17" s="154"/>
       <c r="AD17" s="154"/>
-      <c r="AE17" s="290" t="s">
+      <c r="AE17" s="291" t="s">
         <v>112</v>
       </c>
       <c r="AF17" s="154"/>
@@ -35813,7 +35806,7 @@
       </c>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:40" ht="8.4499999999999993" customHeight="1">
+    <row r="30" spans="1:40" ht="8.5" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
@@ -35915,7 +35908,7 @@
       <c r="AL33" s="36"/>
       <c r="AM33" s="36"/>
     </row>
-    <row r="34" spans="1:39" s="27" customFormat="1" ht="8.4499999999999993" customHeight="1">
+    <row r="34" spans="1:39" s="27" customFormat="1" ht="8.5" customHeight="1">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38"/>
@@ -36018,7 +36011,7 @@
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:28" ht="15">
+    <row r="49" spans="1:28">
       <c r="A49" s="27" t="s">
         <v>128</v>
       </c>
@@ -36144,11 +36137,11 @@
       <selection activeCell="F4" sqref="F4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="7" width="2.375" customWidth="1"/>
-    <col min="8" max="13" width="1.875" customWidth="1"/>
-    <col min="14" max="39" width="2.375" customWidth="1"/>
+    <col min="1" max="7" width="2.35546875" customWidth="1"/>
+    <col min="8" max="13" width="1.85546875" customWidth="1"/>
+    <col min="14" max="39" width="2.35546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46">
@@ -37537,16 +37530,16 @@
       <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.35546875" customWidth="1"/>
     <col min="4" max="4" width="4.5" customWidth="1"/>
-    <col min="5" max="5" width="5.375" customWidth="1"/>
-    <col min="6" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="11" width="2.375" customWidth="1"/>
-    <col min="12" max="17" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="5.35546875" customWidth="1"/>
+    <col min="6" max="7" width="4.640625" customWidth="1"/>
+    <col min="8" max="11" width="2.35546875" customWidth="1"/>
+    <col min="12" max="17" width="4.640625" customWidth="1"/>
     <col min="18" max="18" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37572,7 +37565,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="5" t="s">
         <v>281</v>
       </c>
@@ -37700,7 +37693,7 @@
     <row r="10" spans="1:18">
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="15.75">
+    <row r="11" spans="1:18" ht="15">
       <c r="A11" s="66" t="s">
         <v>284</v>
       </c>
@@ -38091,20 +38084,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="L7" sqref="L7:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="10.35546875" customWidth="1"/>
     <col min="4" max="4" width="4.5" customWidth="1"/>
-    <col min="5" max="5" width="5.375" customWidth="1"/>
-    <col min="6" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="11" width="2.375" customWidth="1"/>
-    <col min="12" max="17" width="4.625" customWidth="1"/>
+    <col min="5" max="5" width="5.35546875" customWidth="1"/>
+    <col min="6" max="7" width="4.640625" customWidth="1"/>
+    <col min="8" max="11" width="2.35546875" customWidth="1"/>
+    <col min="12" max="17" width="4.640625" customWidth="1"/>
     <col min="18" max="18" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38130,7 +38123,7 @@
       <c r="Q1" s="172"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -38499,7 +38492,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75">
+    <row r="19" spans="1:18" ht="15">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -38645,7 +38638,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75">
+    <row r="27" spans="1:18" ht="15">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -38656,7 +38649,7 @@
       <c r="C28" s="173"/>
       <c r="D28" s="173"/>
     </row>
-    <row r="29" spans="1:18" ht="15">
+    <row r="29" spans="1:18" ht="14.6">
       <c r="A29" s="47" t="s">
         <v>341</v>
       </c>
@@ -38869,11 +38862,11 @@
       <selection activeCell="L14" sqref="L14:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="5" width="4.875" style="50" customWidth="1"/>
+    <col min="1" max="5" width="4.85546875" style="50" customWidth="1"/>
     <col min="6" max="17" width="5" style="50" customWidth="1"/>
-    <col min="18" max="16384" width="8.625" style="50"/>
+    <col min="18" max="16384" width="8.640625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -38897,7 +38890,7 @@
       <c r="P1" s="140"/>
       <c r="Q1" s="140"/>
     </row>
-    <row r="2" spans="1:17" ht="15.75">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" s="66" t="s">
         <v>198</v>
       </c>
@@ -39040,7 +39033,7 @@
       <c r="P8" s="64"/>
       <c r="Q8" s="64"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75">
+    <row r="9" spans="1:17" ht="15">
       <c r="A9" s="69" t="s">
         <v>200</v>
       </c>
@@ -39248,7 +39241,7 @@
       <c r="P20" s="64"/>
       <c r="Q20" s="64"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75">
+    <row r="21" spans="1:17" ht="15">
       <c r="A21" s="66" t="s">
         <v>207</v>
       </c>
@@ -39527,13 +39520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N5" sqref="N5:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15"/>
   <cols>
-    <col min="4" max="15" width="4.875" customWidth="1"/>
+    <col min="4" max="15" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -39555,7 +39548,7 @@
       <c r="N1" s="172"/>
       <c r="O1" s="172"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -39884,7 +39877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75">
+    <row r="24" spans="1:15" ht="15">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -40051,7 +40044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75">
+    <row r="36" spans="1:15" ht="15">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -40475,16 +40468,16 @@
       <selection activeCell="E1" sqref="E1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15"/>
   <cols>
-    <col min="3" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
-    <col min="9" max="12" width="4.875" customWidth="1"/>
+    <col min="3" max="4" width="4.35546875" customWidth="1"/>
+    <col min="5" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="4.640625" customWidth="1"/>
+    <col min="8" max="8" width="4.35546875" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="16" width="4.875" customWidth="1"/>
-    <col min="17" max="17" width="6.625" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="6.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -40619,7 +40612,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.45" customHeight="1">
+    <row r="12" spans="1:17" ht="14.5" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>279</v>
       </c>
@@ -40685,7 +40678,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="15">
+    <row r="15" spans="1:17">
       <c r="A15" s="11" t="s">
         <v>272</v>
       </c>
@@ -40705,7 +40698,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="1:17" ht="15">
+    <row r="16" spans="1:17">
       <c r="A16" s="11" t="s">
         <v>273</v>
       </c>
@@ -40821,7 +40814,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
     </row>
-    <row r="22" spans="1:16" ht="14.45" customHeight="1">
+    <row r="22" spans="1:16" ht="14.5" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>279</v>
       </c>
@@ -40887,7 +40880,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
     </row>
-    <row r="25" spans="1:16" ht="15">
+    <row r="25" spans="1:16">
       <c r="A25" s="11" t="s">
         <v>272</v>
       </c>
@@ -40907,7 +40900,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
     </row>
-    <row r="26" spans="1:16" ht="15">
+    <row r="26" spans="1:16">
       <c r="A26" s="11" t="s">
         <v>273</v>
       </c>
@@ -40985,7 +40978,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="1:16" ht="15">
+    <row r="30" spans="1:16">
       <c r="A30" s="11" t="s">
         <v>293</v>
       </c>
@@ -41089,7 +41082,7 @@
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
-    <row r="35" spans="1:16" ht="15">
+    <row r="35" spans="1:16">
       <c r="A35" s="11" t="s">
         <v>272</v>
       </c>
@@ -41109,7 +41102,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
     </row>
-    <row r="36" spans="1:16" ht="15">
+    <row r="36" spans="1:16">
       <c r="A36" s="11" t="s">
         <v>273</v>
       </c>
@@ -41187,7 +41180,7 @@
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
     </row>
-    <row r="40" spans="1:16" ht="15">
+    <row r="40" spans="1:16">
       <c r="A40" s="11" t="s">
         <v>294</v>
       </c>
@@ -41291,7 +41284,7 @@
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
     </row>
-    <row r="45" spans="1:16" ht="15">
+    <row r="45" spans="1:16">
       <c r="A45" s="11" t="s">
         <v>272</v>
       </c>
@@ -41311,7 +41304,7 @@
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
     </row>
-    <row r="46" spans="1:16" ht="15">
+    <row r="46" spans="1:16">
       <c r="A46" s="11" t="s">
         <v>273</v>
       </c>
@@ -41427,7 +41420,7 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
     </row>
-    <row r="52" spans="1:16" ht="15">
+    <row r="52" spans="1:16">
       <c r="A52" s="11" t="s">
         <v>276</v>
       </c>
@@ -41483,11 +41476,11 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15"/>
   <cols>
-    <col min="4" max="5" width="4.875" customWidth="1"/>
-    <col min="6" max="6" width="5.125" customWidth="1"/>
-    <col min="7" max="15" width="4.875" customWidth="1"/>
+    <col min="4" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="15" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -42023,7 +42016,7 @@
       <c r="N29" s="154"/>
       <c r="O29" s="154"/>
     </row>
-    <row r="30" spans="1:15" ht="15">
+    <row r="30" spans="1:15">
       <c r="A30" s="82" t="s">
         <v>328</v>
       </c>
@@ -42031,12 +42024,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15">
+    <row r="32" spans="1:15">
       <c r="A32" s="82" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15">
+    <row r="33" spans="1:10">
       <c r="A33" s="82" t="s">
         <v>362</v>
       </c>
@@ -42050,37 +42043,37 @@
       <c r="I33" s="175"/>
       <c r="J33" s="175"/>
     </row>
-    <row r="34" spans="1:10" ht="15">
+    <row r="34" spans="1:10">
       <c r="A34" s="82" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15">
+    <row r="35" spans="1:10">
       <c r="A35" s="82" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15">
+    <row r="36" spans="1:10">
       <c r="A36" s="82" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15">
+    <row r="37" spans="1:10">
       <c r="A37" s="82" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15">
+    <row r="38" spans="1:10">
       <c r="A38" s="82" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15">
+    <row r="39" spans="1:10">
       <c r="A39" s="82" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15">
+    <row r="40" spans="1:10">
       <c r="A40" s="82" t="s">
         <v>336</v>
       </c>
@@ -42090,12 +42083,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15">
+    <row r="45" spans="1:10">
       <c r="A45" s="84" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15">
+    <row r="46" spans="1:10">
       <c r="A46" s="83" t="s">
         <v>339</v>
       </c>
@@ -42239,9 +42232,9 @@
       <selection activeCell="D1" sqref="D1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15"/>
   <cols>
-    <col min="4" max="15" width="4.875" customWidth="1"/>
+    <col min="4" max="15" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -42263,25 +42256,25 @@
       <c r="N1" s="172"/>
       <c r="O1" s="172"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75">
+    <row r="3" spans="1:15" ht="15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75">
+    <row r="4" spans="1:15" ht="15">
       <c r="A4" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15" ht="15">
       <c r="A6" s="37" t="s">
         <v>102</v>
       </c>
@@ -42332,7 +42325,7 @@
     <row r="10" spans="1:15">
       <c r="A10" s="27"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
@@ -42393,7 +42386,7 @@
     <row r="17" spans="1:15">
       <c r="A17" s="27"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75">
+    <row r="18" spans="1:15" ht="15">
       <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
